--- a/project/uploads/93/split_output/18修冲模.xlsx
+++ b/project/uploads/93/split_output/18修冲模.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codespace\web-program\project\uploads\93\split_output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codespace\temp\webprogram\project\uploads\93\split_output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{381DF3B8-88DD-4000-8DB3-3264C306B0FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{76C5E8FF-4F59-438B-9F0F-878711B4625A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{37D80589-2924-4D9E-8273-13E3C446464D}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="8170" xr2:uid="{41DE378D-77E4-41A8-8F35-A7B35A3BFFBC}"/>
   </bookViews>
   <sheets>
     <sheet name="18修冲模" sheetId="1" r:id="rId1"/>
@@ -2945,7 +2945,7 @@
         <xdr:cNvPr id="2" name="Picture 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFB2CD1E-53FD-4E70-9F95-340C55F4C912}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7D31E60-EE05-434F-B439-572189D28743}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2962,8 +2962,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1738630" y="62270005"/>
-          <a:ext cx="3371850" cy="1162050"/>
+          <a:off x="1737360" y="63110745"/>
+          <a:ext cx="3371850" cy="1187450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2997,7 +2997,7 @@
         <xdr:cNvPr id="3" name="Picture 1678">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{609FE045-1550-4248-8843-37EE77160913}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E55FE00-0665-495E-B27D-3AD3E9DB27D7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3014,8 +3014,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1312545" y="10018395"/>
-          <a:ext cx="2590800" cy="1508760"/>
+          <a:off x="1311275" y="10201275"/>
+          <a:ext cx="2590800" cy="1549400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3049,7 +3049,7 @@
         <xdr:cNvPr id="4" name="Picture 1680">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B37D8A51-4AF8-4813-A43E-F017F783E914}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DF96B27-0121-4FAD-B707-358EF44208EC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3066,8 +3066,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4208145" y="9725025"/>
-          <a:ext cx="1438275" cy="2114550"/>
+          <a:off x="4206875" y="9902825"/>
+          <a:ext cx="1438275" cy="2165350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3101,7 +3101,7 @@
         <xdr:cNvPr id="5" name="Picture 1681">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE6A9C68-910B-4311-8536-B88770A86F7A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88E065E2-CBBC-4F2E-81F9-70A1ECD282CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3118,8 +3118,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6055995" y="9744075"/>
-          <a:ext cx="1533525" cy="2095500"/>
+          <a:off x="6054725" y="9921875"/>
+          <a:ext cx="1533525" cy="2146300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3153,7 +3153,7 @@
         <xdr:cNvPr id="6" name="组合 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5969044A-D184-4FDB-A4C7-3194DAC617B6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33B1DC47-159C-4BB5-9C06-91F890315DDA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3161,8 +3161,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3724910" y="35982910"/>
-          <a:ext cx="1466849" cy="996950"/>
+          <a:off x="3723640" y="36681410"/>
+          <a:ext cx="1466849" cy="1022350"/>
           <a:chOff x="3943350" y="13277850"/>
           <a:chExt cx="1671777" cy="1171575"/>
         </a:xfrm>
@@ -3172,7 +3172,7 @@
           <xdr:cNvPr id="7" name="组合 30">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A2FC95F-470C-6C1D-ACDB-66E99D211A19}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5976340A-FC34-1A1A-5459-4B00A2ED9E5D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3191,7 +3191,7 @@
             <xdr:cNvPr id="9" name="Picture 748">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3911523-193F-CFB7-F753-D6336B395B74}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23657CCC-243B-394C-7FE8-AB5DDB3C4893}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3228,7 +3228,7 @@
             <xdr:cNvPr id="10" name="TextBox 68">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC125791-8A91-732D-20F5-E0945AFE7B64}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8A0D745-D153-2096-CEA0-E34A3AE8882E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3285,7 +3285,7 @@
           <xdr:cNvPr id="8" name="椭圆 31">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15072E87-F3C6-2566-1E34-771BE834D1E6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30C0823E-ED42-53D5-7DAA-0A4E58D4A57E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3331,7 +3331,7 @@
         <xdr:cNvPr id="11" name="CheckBox4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{789BB7F8-6846-4596-AC0F-F6909D48425A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC6FB605-8C20-4EE3-944D-58852C824E98}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3354,8 +3354,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3669030" y="433070"/>
-          <a:ext cx="152400" cy="179070"/>
+          <a:off x="3667760" y="443230"/>
+          <a:ext cx="152400" cy="184150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3396,7 +3396,7 @@
         <xdr:cNvPr id="12" name="CheckBox12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{399B725E-6D48-4620-959E-2660A3CF4F30}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAB344DE-7FA6-4D22-BB80-5651D5AB3E5B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3419,8 +3419,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1798320" y="811530"/>
-          <a:ext cx="152400" cy="179070"/>
+          <a:off x="1797050" y="831850"/>
+          <a:ext cx="152400" cy="184150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3461,7 +3461,7 @@
         <xdr:cNvPr id="13" name="CheckBox14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D95ED95-C844-48C5-8F80-2FCF1A4C09DD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B262A65F-0D60-46D8-9C84-C151F31B2C3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3484,8 +3484,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1798320" y="1207770"/>
-          <a:ext cx="152400" cy="179070"/>
+          <a:off x="1797050" y="1238250"/>
+          <a:ext cx="152400" cy="184150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3526,7 +3526,7 @@
         <xdr:cNvPr id="14" name="CheckBox17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87BB3C45-19F1-4A70-84BC-A48E3AEDCAA5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95AC9862-F3EE-4523-8E26-6D8936D11290}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3549,8 +3549,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1859915" y="1814830"/>
-          <a:ext cx="152400" cy="179070"/>
+          <a:off x="1858645" y="1860550"/>
+          <a:ext cx="152400" cy="184150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3591,7 +3591,7 @@
         <xdr:cNvPr id="15" name="CheckBox21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C59B0D46-6673-42ED-8AA1-AD282B7F86AF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F47A2A2-B2BC-41EA-8C21-5F4096CA1622}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3614,8 +3614,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1503045" y="26132790"/>
-          <a:ext cx="152400" cy="179070"/>
+          <a:off x="1501775" y="26676350"/>
+          <a:ext cx="152400" cy="184150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3656,7 +3656,7 @@
         <xdr:cNvPr id="16" name="CheckBox1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{757D2ECB-D58F-47FA-BA4E-F2B6A8C84F35}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EB3EEFF-2883-4B44-8ED8-1EF772FB51A7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3679,8 +3679,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1493520" y="26340435"/>
-          <a:ext cx="152400" cy="179070"/>
+          <a:off x="1492250" y="26889075"/>
+          <a:ext cx="152400" cy="184150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3721,7 +3721,7 @@
         <xdr:cNvPr id="17" name="CheckBox27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A16062DA-176E-435F-BF4A-C9356E8200EF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B839764-58F1-4289-A773-0FE99E63D806}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3744,8 +3744,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1760220" y="73506330"/>
-          <a:ext cx="152400" cy="179070"/>
+          <a:off x="1758950" y="74580750"/>
+          <a:ext cx="152400" cy="184150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3786,7 +3786,7 @@
         <xdr:cNvPr id="18" name="CheckBox8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894E94E1-E47E-48D3-9E81-C1A99F84EAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6839E6FA-2A61-4308-AC48-3485C556E891}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3809,8 +3809,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1852295" y="21973540"/>
-          <a:ext cx="152400" cy="179070"/>
+          <a:off x="1851025" y="22410420"/>
+          <a:ext cx="152400" cy="184150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3851,7 +3851,7 @@
         <xdr:cNvPr id="19" name="CheckBox2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F94FE8FA-9B6D-4E53-9CA8-B77BB59688ED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E303D87-D6D8-410D-9BD5-AF2553581D16}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3874,7 +3874,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1483995" y="25925145"/>
+          <a:off x="1482725" y="26463625"/>
           <a:ext cx="152400" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3916,7 +3916,7 @@
         <xdr:cNvPr id="20" name="图片 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDDF9D24-371D-4197-AE88-3589946F8037}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D015925-4B8D-411B-9304-5493E90F53E3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3932,7 +3932,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2166620" y="74923015"/>
+          <a:off x="2165350" y="76030455"/>
           <a:ext cx="3757930" cy="1411605"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3964,7 +3964,7 @@
         <xdr:cNvPr id="21" name="图片 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{817F3D8C-0D97-4D75-AC3B-C767BE851753}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5822A8C6-D384-4A0B-A61C-623B2D860A40}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3980,8 +3980,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2226945" y="14104620"/>
-          <a:ext cx="3186430" cy="2710180"/>
+          <a:off x="2225675" y="14368780"/>
+          <a:ext cx="3186430" cy="2781300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4012,7 +4012,7 @@
         <xdr:cNvPr id="22" name="Picture 112">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50986D93-5F92-4A90-998E-D7B123BE74C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B851E6AD-85F4-4ECC-9361-4CA372B0E5CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4035,7 +4035,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3618230" y="13369290"/>
+          <a:off x="3616960" y="13620750"/>
           <a:ext cx="152400" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4077,7 +4077,7 @@
         <xdr:cNvPr id="23" name="图片 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E134B948-048C-4A2F-B538-BF7DEE8CAC6D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21217C42-0334-4D21-9524-838B0ECEF0D5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4093,8 +4093,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1417955" y="17451705"/>
-          <a:ext cx="5820410" cy="2574925"/>
+          <a:off x="1416685" y="17802225"/>
+          <a:ext cx="5820410" cy="2640965"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4125,7 +4125,7 @@
         <xdr:cNvPr id="24" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88967230-AEAA-4169-94D8-3261AD9770FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A41235A-6B8E-434A-B9E2-468E926E6848}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4141,8 +4141,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1445895" y="50175795"/>
-          <a:ext cx="5886450" cy="2891155"/>
+          <a:off x="1444625" y="50936525"/>
+          <a:ext cx="5886450" cy="2888615"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4173,7 +4173,7 @@
         <xdr:cNvPr id="25" name="图片 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80EBB8DD-BD60-4722-BB98-C27BFD1BA596}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{630B84E4-EEB6-4178-9941-246814397127}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4189,8 +4189,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4684395" y="68266310"/>
-          <a:ext cx="2847975" cy="2165350"/>
+          <a:off x="4683125" y="69216270"/>
+          <a:ext cx="2847975" cy="2221230"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4212,7 +4212,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
+      <xdr:colOff>650240</xdr:colOff>
       <xdr:row>195</xdr:row>
       <xdr:rowOff>134620</xdr:rowOff>
     </xdr:to>
@@ -4221,7 +4221,7 @@
         <xdr:cNvPr id="26" name="图片 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7645E8DA-AA9A-400B-AF86-7F77A4CF2D93}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3298A3D0-B196-4215-BD15-939394A1D37D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4237,8 +4237,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7965440" y="54314725"/>
-          <a:ext cx="6515100" cy="4417695"/>
+          <a:off x="7959090" y="55076725"/>
+          <a:ext cx="6515100" cy="4430395"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4269,7 +4269,7 @@
         <xdr:cNvPr id="27" name="组合 63">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC3A3C89-59E0-4196-9945-3E7E4744EBD8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CA47C2E-E1B3-48D9-A931-4D0E741876A8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4277,8 +4277,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1573530" y="27207210"/>
-          <a:ext cx="5724525" cy="3736340"/>
+          <a:off x="1572260" y="27776170"/>
+          <a:ext cx="5724525" cy="3832860"/>
           <a:chOff x="304800" y="4038600"/>
           <a:chExt cx="6019800" cy="4517796"/>
         </a:xfrm>
@@ -4288,7 +4288,7 @@
           <xdr:cNvPr id="28" name="图片 64">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8092678-AB2A-CCE1-0CEE-75DF65742032}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53770BE1-8BFC-1DC7-19B1-2F565D292055}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4322,7 +4322,7 @@
           <xdr:cNvPr id="29" name="椭圆 65">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{466EF31D-413F-ACAD-A66B-2C1AB75FAB4B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81C3A8EB-25B4-782E-58A2-58EF9B1C8A2E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4471,7 +4471,7 @@
           <xdr:cNvPr id="30" name="椭圆 66">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1DBFE78-E631-8310-62DF-31DB465B909A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF0C82E8-F304-47DE-89E8-4A96C2BCB243}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4620,7 +4620,7 @@
           <xdr:cNvPr id="31" name="椭圆 67">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C382C22-77CD-B4DB-8BD7-C4E3D8CE5F43}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CF4F01B-0442-9997-32AB-2D912FA7122D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4769,7 +4769,7 @@
           <xdr:cNvPr id="32" name="椭圆 68">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FC1F903-E2F8-26F8-E660-965FE4E67BEF}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC1C1A2C-AD7B-98B1-C731-2BD3ECEF93B6}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4934,7 +4934,7 @@
         <xdr:cNvPr id="33" name="图片 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E097A5E7-F025-4026-90CD-B4404B74906D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CE29049-D0CA-4324-831F-2F355AA280D1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4950,8 +4950,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1355725" y="48408590"/>
-          <a:ext cx="3561715" cy="1480820"/>
+          <a:off x="1354455" y="49171860"/>
+          <a:ext cx="3561715" cy="1479550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4982,7 +4982,7 @@
         <xdr:cNvPr id="34" name="图片 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31AA1009-ADA5-43A0-95F7-DAF4916C554D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB55A4E3-5F51-4AF2-BD8D-5E8175ED1649}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4998,8 +4998,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5095240" y="48395255"/>
-          <a:ext cx="2610485" cy="1494155"/>
+          <a:off x="5093970" y="49158525"/>
+          <a:ext cx="2610485" cy="1492885"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5021,7 +5021,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>281305</xdr:colOff>
+      <xdr:colOff>349885</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>220345</xdr:rowOff>
     </xdr:to>
@@ -5030,7 +5030,7 @@
         <xdr:cNvPr id="35" name="图片 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5097B326-28DA-4765-8F29-91495B869758}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4415AF7-DD55-4136-B58E-D8D42492D76E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5046,8 +5046,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7973695" y="455930"/>
-          <a:ext cx="4720590" cy="2339975"/>
+          <a:off x="7967345" y="466090"/>
+          <a:ext cx="4720590" cy="2395855"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5078,7 +5078,7 @@
         <xdr:cNvPr id="36" name="图片 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5914FD90-310F-4746-9C2E-27BE439A69C9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4513650C-E4B0-47EF-9D20-A7E6F33B377E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5094,8 +5094,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1602740" y="32075120"/>
-          <a:ext cx="5522595" cy="3460115"/>
+          <a:off x="1601470" y="32766000"/>
+          <a:ext cx="5522595" cy="3462655"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5117,7 +5117,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>147320</xdr:colOff>
+      <xdr:colOff>181610</xdr:colOff>
       <xdr:row>258</xdr:row>
       <xdr:rowOff>52070</xdr:rowOff>
     </xdr:to>
@@ -5126,7 +5126,7 @@
         <xdr:cNvPr id="37" name="图片 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C0C95D5-3084-4B22-8147-777F54A0BC45}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DF52CF8-C0AE-476B-8F3A-BDEFEA2FC757}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5142,8 +5142,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7900670" y="72071230"/>
-          <a:ext cx="2396490" cy="1071880"/>
+          <a:off x="7894320" y="73115170"/>
+          <a:ext cx="2396490" cy="1092200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5174,7 +5174,7 @@
         <xdr:cNvPr id="38" name="图片 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B161635-9541-4636-8555-10FC5C4CE4C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD42E755-F203-4FF0-BC7B-0FC1C199CECC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5190,7 +5190,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1421765" y="56613425"/>
+          <a:off x="1420495" y="57388125"/>
           <a:ext cx="3908425" cy="2214245"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5213,7 +5213,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>147955</xdr:colOff>
+      <xdr:colOff>239395</xdr:colOff>
       <xdr:row>72</xdr:row>
       <xdr:rowOff>100965</xdr:rowOff>
     </xdr:to>
@@ -5222,7 +5222,7 @@
         <xdr:cNvPr id="39" name="图片 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{404607CA-5B68-4591-A13A-5404E4FF562C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC41A9FA-BF8E-4A5C-B305-D77E0C3C077C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5238,8 +5238,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8145145" y="12863195"/>
-          <a:ext cx="5924550" cy="4245610"/>
+          <a:off x="8138795" y="13109575"/>
+          <a:ext cx="5924550" cy="4339590"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5270,7 +5270,7 @@
         <xdr:cNvPr id="40" name="图片 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{904823B2-44E5-4369-BA7B-461D0841A872}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7A38777-F11F-4C91-A3C0-7D7F77F3A929}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5286,8 +5286,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3198495" y="38287960"/>
-          <a:ext cx="1671955" cy="2220595"/>
+          <a:off x="3197225" y="39032180"/>
+          <a:ext cx="1671955" cy="2219325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5318,7 +5318,7 @@
         <xdr:cNvPr id="41" name="图片 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{278A336B-EEB7-4745-B86F-B322F852A507}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6588F02D-A0AF-4964-A16F-5B7E50B4F23E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5334,8 +5334,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1797685" y="40752395"/>
-          <a:ext cx="4265930" cy="1299845"/>
+          <a:off x="1796415" y="41494075"/>
+          <a:ext cx="4265930" cy="1298575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5366,7 +5366,7 @@
         <xdr:cNvPr id="42" name="图片 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8924CDED-6301-4803-99D8-7049D429CD0D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A73609BF-8CBD-4ED5-AFF6-08BC02F59ECE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5382,8 +5382,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1520190" y="42403395"/>
-          <a:ext cx="5219700" cy="654685"/>
+          <a:off x="1518920" y="43146345"/>
+          <a:ext cx="5219700" cy="657225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5414,7 +5414,7 @@
         <xdr:cNvPr id="43" name="图片 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F57B55E1-C139-49B8-8E97-17191108D74C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67021497-F3C5-4732-BFCC-ED74FAB2E23D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5430,8 +5430,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2179955" y="46795690"/>
-          <a:ext cx="3914140" cy="1600835"/>
+          <a:off x="2178685" y="47553880"/>
+          <a:ext cx="3914140" cy="1605915"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5453,7 +5453,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>284480</xdr:colOff>
+      <xdr:colOff>330200</xdr:colOff>
       <xdr:row>261</xdr:row>
       <xdr:rowOff>13335</xdr:rowOff>
     </xdr:to>
@@ -5462,7 +5462,7 @@
         <xdr:cNvPr id="44" name="图片 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{073DDFB8-DF03-4BF1-97D8-DBFEFA16A5DF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A15D089-27F4-4595-841F-1D163E3D6269}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5478,8 +5478,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10528300" y="71820405"/>
-          <a:ext cx="2717800" cy="1878330"/>
+          <a:off x="10521950" y="72854185"/>
+          <a:ext cx="2717800" cy="1924050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5510,7 +5510,7 @@
         <xdr:cNvPr id="45" name="图片 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{365F5801-0E53-456E-B4DE-87DA2DA0A39C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29CFE023-8FFA-4F2D-B81B-CAB4919877E6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5526,8 +5526,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1306195" y="4017010"/>
-          <a:ext cx="4968875" cy="2260600"/>
+          <a:off x="1304925" y="4093210"/>
+          <a:ext cx="4968875" cy="2301240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5549,7 +5549,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>466090</xdr:colOff>
+      <xdr:colOff>488950</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>187960</xdr:rowOff>
     </xdr:to>
@@ -5558,7 +5558,7 @@
         <xdr:cNvPr id="46" name="图片 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B754FA58-C94B-4BFA-AE85-9DAFD7C6891D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA050EE6-91C7-429A-8370-656CA0E60328}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5574,8 +5574,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6472555" y="4100195"/>
-          <a:ext cx="4074795" cy="2519045"/>
+          <a:off x="6471285" y="4176395"/>
+          <a:ext cx="4069715" cy="2564765"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5597,7 +5597,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>511175</xdr:colOff>
+      <xdr:colOff>602615</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>80010</xdr:rowOff>
     </xdr:to>
@@ -5606,7 +5606,7 @@
         <xdr:cNvPr id="47" name="图片 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23444344-53BF-4D11-A969-2B9BFC104C42}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FEE25B0-E372-47CB-BB8B-5602054B8EFA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5622,8 +5622,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7943215" y="6896100"/>
-          <a:ext cx="6489700" cy="2861310"/>
+          <a:off x="7936865" y="7023100"/>
+          <a:ext cx="6489700" cy="2912110"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5654,7 +5654,7 @@
         <xdr:cNvPr id="48" name="object 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F19B92B-5A8A-4A3C-A710-FE0F06EEDD19}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E9C4615-A603-4A87-807E-C9DBBA7BD03B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5662,8 +5662,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1487805" y="68240910"/>
-          <a:ext cx="2938780" cy="2114550"/>
+          <a:off x="1486535" y="69190870"/>
+          <a:ext cx="2938780" cy="2165350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5699,7 +5699,7 @@
         <xdr:cNvPr id="49" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F21306A6-E5D3-4E28-B2A8-544EE9473977}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EDCE419-6E02-453F-AC6C-E2B933502303}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5715,8 +5715,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5090795" y="64928115"/>
-          <a:ext cx="2509520" cy="1644650"/>
+          <a:off x="5089525" y="65814575"/>
+          <a:ext cx="2509520" cy="1690370"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5747,7 +5747,7 @@
         <xdr:cNvPr id="50" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43B52964-DAB7-4C94-869D-4E69C94AC537}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F142B29-3476-4504-8285-3E32EB74D9BD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5763,8 +5763,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9178925" y="59224545"/>
-          <a:ext cx="4030345" cy="2194560"/>
+          <a:off x="9172575" y="60004325"/>
+          <a:ext cx="4030345" cy="2240280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5795,7 +5795,7 @@
         <xdr:cNvPr id="51" name="图片 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C55920B-5D90-4C0F-8FAF-7BF84681345B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{267DB85E-375D-4523-90FC-AD0927720A9F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5811,8 +5811,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1460500" y="64727455"/>
-          <a:ext cx="2942590" cy="1852295"/>
+          <a:off x="1459230" y="65608835"/>
+          <a:ext cx="2942590" cy="1903095"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5843,7 +5843,7 @@
         <xdr:cNvPr id="52" name="图片 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF9C7A1D-1644-42DF-8DEF-3EDFE4C3E009}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23C9BDCA-93C1-4A2C-AE27-4D5E65BBAECE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5859,7 +5859,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5405120" y="56933465"/>
+          <a:off x="5403850" y="57708165"/>
           <a:ext cx="2425065" cy="1520825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5882,7 +5882,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>222885</xdr:colOff>
+      <xdr:colOff>302895</xdr:colOff>
       <xdr:row>80</xdr:row>
       <xdr:rowOff>54610</xdr:rowOff>
     </xdr:to>
@@ -5891,7 +5891,7 @@
         <xdr:cNvPr id="53" name="图片 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B1493FC-D520-42AC-B3C3-89160A1EB67B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{686C6654-F678-4040-9391-CDBDD5E847C9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5907,8 +5907,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8215630" y="16983075"/>
-          <a:ext cx="5174615" cy="1664335"/>
+          <a:off x="8209280" y="17318355"/>
+          <a:ext cx="5174615" cy="1710055"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5929,8 +5929,8 @@
       <xdr:rowOff>172720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>607060</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1270</xdr:colOff>
       <xdr:row>92</xdr:row>
       <xdr:rowOff>182245</xdr:rowOff>
     </xdr:to>
@@ -5939,7 +5939,7 @@
         <xdr:cNvPr id="54" name="图片 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{241C336A-D67F-42A1-A43C-561D799B6534}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3F30AEB-9BBF-409F-8D34-99ABCEC795EF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5955,8 +5955,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8173085" y="18765520"/>
-          <a:ext cx="5601335" cy="2905125"/>
+          <a:off x="8166735" y="19146520"/>
+          <a:ext cx="5601335" cy="2955925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5987,7 +5987,7 @@
         <xdr:cNvPr id="55" name="图片 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F70EC40-5B66-475C-80EA-4772E0565E7C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7D6B6F1-A311-4D5F-99AC-51230C49C34C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6003,8 +6003,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1581150" y="22663785"/>
-          <a:ext cx="4615815" cy="2601595"/>
+          <a:off x="1579880" y="23115905"/>
+          <a:ext cx="4615815" cy="2667635"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6026,7 +6026,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
+      <xdr:colOff>310515</xdr:colOff>
       <xdr:row>71</xdr:row>
       <xdr:rowOff>48260</xdr:rowOff>
     </xdr:to>
@@ -6035,7 +6035,7 @@
         <xdr:cNvPr id="56" name="图片 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9D3D33A-42F7-4A49-A77D-DAAE8FE583BD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F1798B1-23D8-4249-A770-242FE8DEBD8B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6051,8 +6051,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14150340" y="13068935"/>
-          <a:ext cx="6162675" cy="3789045"/>
+          <a:off x="14143990" y="13315315"/>
+          <a:ext cx="6162675" cy="3877945"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6083,7 +6083,7 @@
         <xdr:cNvPr id="57" name="图片 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98CAA4B1-DE73-4209-BEDA-064769A49D18}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1A76189-2EB4-488E-8301-1388D3B577FD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6099,8 +6099,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2303145" y="59786520"/>
-          <a:ext cx="2538730" cy="1736090"/>
+          <a:off x="2301875" y="60571380"/>
+          <a:ext cx="2538730" cy="1781810"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11711,7 +11711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2BD782A-6229-4FDF-990F-B11E35EFF383}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A181FA1F-A87D-40AD-9C73-49D908B7E62B}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -11721,13 +11721,13 @@
       <selection activeCell="B199" sqref="B199:B208"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.59765625" customWidth="1"/>
-    <col min="2" max="2" width="86.8984375" style="63" customWidth="1"/>
+    <col min="1" max="1" width="16.58203125" customWidth="1"/>
+    <col min="2" max="2" width="86.83203125" style="63" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11738,7 +11738,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -11746,135 +11746,135 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="43.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="44" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="43.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="44" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="10"/>
     </row>
-    <row r="18" spans="1:2" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="11"/>
     </row>
-    <row r="19" spans="1:2" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="11"/>
     </row>
-    <row r="20" spans="1:2" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="11"/>
     </row>
-    <row r="21" spans="1:2" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="11"/>
     </row>
-    <row r="22" spans="1:2" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="11"/>
     </row>
-    <row r="23" spans="1:2" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="11"/>
     </row>
-    <row r="24" spans="1:2" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="11"/>
     </row>
-    <row r="25" spans="1:2" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="11"/>
     </row>
-    <row r="26" spans="1:2" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="12"/>
     </row>
-    <row r="27" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="4"/>
     </row>
-    <row r="28" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="13" t="s">
         <v>19</v>
@@ -11886,103 +11886,103 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
       <c r="B33" s="14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="14"/>
     </row>
-    <row r="36" spans="1:2" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="14"/>
     </row>
-    <row r="37" spans="1:2" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
       <c r="B38" s="15"/>
     </row>
-    <row r="39" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="B39" s="16"/>
     </row>
-    <row r="40" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="16"/>
     </row>
-    <row r="41" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="16"/>
     </row>
-    <row r="42" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" s="16"/>
     </row>
-    <row r="43" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="16"/>
     </row>
-    <row r="44" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="B44" s="16"/>
     </row>
-    <row r="45" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
       <c r="B45" s="16"/>
     </row>
-    <row r="46" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
       <c r="B46" s="16"/>
     </row>
-    <row r="47" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
       <c r="B47" s="16"/>
     </row>
-    <row r="48" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
       <c r="B48" s="17"/>
     </row>
-    <row r="49" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
       <c r="B49" s="18"/>
     </row>
-    <row r="50" spans="1:2" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
       <c r="B50" s="14"/>
     </row>
-    <row r="51" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
       <c r="B51" s="19" t="s">
         <v>27</v>
@@ -11998,155 +11998,155 @@
       <c r="A53" s="5"/>
       <c r="B53" s="4"/>
     </row>
-    <row r="54" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5"/>
       <c r="B54" s="21" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5"/>
       <c r="B55" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5"/>
       <c r="B56" s="21"/>
     </row>
-    <row r="57" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5"/>
       <c r="B57" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5"/>
       <c r="B58" s="22"/>
     </row>
-    <row r="59" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5"/>
       <c r="B59" s="23"/>
     </row>
-    <row r="60" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
       <c r="B60" s="23"/>
     </row>
-    <row r="61" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="5"/>
       <c r="B61" s="23"/>
     </row>
-    <row r="62" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5"/>
       <c r="B62" s="23"/>
     </row>
-    <row r="63" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="5"/>
       <c r="B63" s="23"/>
     </row>
-    <row r="64" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="5"/>
       <c r="B64" s="23"/>
     </row>
-    <row r="65" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5"/>
       <c r="B65" s="23"/>
     </row>
-    <row r="66" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5"/>
       <c r="B66" s="23"/>
     </row>
-    <row r="67" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="5"/>
       <c r="B67" s="23"/>
     </row>
-    <row r="68" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="5"/>
       <c r="B68" s="23"/>
     </row>
-    <row r="69" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
       <c r="B69" s="23"/>
     </row>
-    <row r="70" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="5"/>
       <c r="B70" s="23"/>
     </row>
-    <row r="71" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="5"/>
       <c r="B71" s="23"/>
     </row>
-    <row r="72" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="5"/>
       <c r="B72" s="24"/>
     </row>
-    <row r="73" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="5"/>
       <c r="B73" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="5"/>
       <c r="B74" s="4"/>
     </row>
-    <row r="75" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="5"/>
       <c r="B75" s="25"/>
     </row>
-    <row r="76" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="5"/>
       <c r="B76" s="26"/>
     </row>
-    <row r="77" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="5"/>
       <c r="B77" s="26"/>
     </row>
-    <row r="78" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="5"/>
       <c r="B78" s="26"/>
     </row>
-    <row r="79" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5"/>
       <c r="B79" s="26"/>
     </row>
-    <row r="80" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="5"/>
       <c r="B80" s="26"/>
     </row>
-    <row r="81" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="5"/>
       <c r="B81" s="26"/>
     </row>
-    <row r="82" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5"/>
       <c r="B82" s="26"/>
     </row>
-    <row r="83" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="5"/>
       <c r="B83" s="26"/>
     </row>
-    <row r="84" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5"/>
       <c r="B84" s="26"/>
     </row>
-    <row r="85" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5"/>
       <c r="B85" s="26"/>
     </row>
-    <row r="86" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="5"/>
       <c r="B86" s="26"/>
     </row>
-    <row r="87" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="5"/>
       <c r="B87" s="26"/>
     </row>
-    <row r="88" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="5"/>
       <c r="B88" s="27"/>
     </row>
-    <row r="89" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="5"/>
       <c r="B89" s="4" t="s">
         <v>33</v>
@@ -12158,13 +12158,13 @@
         <v>34</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="5"/>
       <c r="B91" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="5"/>
       <c r="B92" s="4" t="s">
         <v>36</v>
@@ -12174,233 +12174,233 @@
       <c r="A93" s="5"/>
       <c r="B93" s="14"/>
     </row>
-    <row r="94" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="5"/>
       <c r="B94" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="5"/>
       <c r="B95" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="5"/>
       <c r="B96" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="5"/>
       <c r="B97" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5"/>
       <c r="B98" s="25"/>
     </row>
-    <row r="99" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="5"/>
       <c r="B99" s="26"/>
     </row>
-    <row r="100" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="5"/>
       <c r="B100" s="26"/>
     </row>
-    <row r="101" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="5"/>
       <c r="B101" s="26"/>
     </row>
-    <row r="102" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="5"/>
       <c r="B102" s="26"/>
     </row>
-    <row r="103" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="5"/>
       <c r="B103" s="26"/>
     </row>
-    <row r="104" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="5"/>
       <c r="B104" s="26"/>
     </row>
-    <row r="105" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="5"/>
       <c r="B105" s="26"/>
     </row>
-    <row r="106" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="5"/>
       <c r="B106" s="26"/>
     </row>
-    <row r="107" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="5"/>
       <c r="B107" s="26"/>
     </row>
-    <row r="108" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="5"/>
       <c r="B108" s="26"/>
     </row>
-    <row r="109" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="5"/>
       <c r="B109" s="26"/>
     </row>
-    <row r="110" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="5"/>
       <c r="B110" s="26"/>
     </row>
-    <row r="111" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="5"/>
       <c r="B111" s="27"/>
     </row>
-    <row r="112" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="5"/>
       <c r="B112" s="4"/>
     </row>
-    <row r="113" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="5"/>
       <c r="B113" s="4"/>
     </row>
-    <row r="114" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="5"/>
       <c r="B114" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="5"/>
       <c r="B115" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="5"/>
       <c r="B116" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="5"/>
       <c r="B117" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="5"/>
       <c r="B118" s="4"/>
     </row>
-    <row r="119" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="5"/>
       <c r="B119" s="28" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="5"/>
       <c r="B120" s="29"/>
     </row>
-    <row r="121" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="5"/>
       <c r="B121" s="15"/>
     </row>
-    <row r="122" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="5"/>
       <c r="B122" s="16"/>
     </row>
-    <row r="123" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="5"/>
       <c r="B123" s="16"/>
     </row>
-    <row r="124" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="5"/>
       <c r="B124" s="16"/>
     </row>
-    <row r="125" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="5"/>
       <c r="B125" s="16"/>
     </row>
-    <row r="126" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="5"/>
       <c r="B126" s="16"/>
     </row>
-    <row r="127" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="5"/>
       <c r="B127" s="16"/>
     </row>
-    <row r="128" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="5"/>
       <c r="B128" s="16"/>
     </row>
-    <row r="129" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="5"/>
       <c r="B129" s="16"/>
     </row>
-    <row r="130" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="5"/>
       <c r="B130" s="16"/>
     </row>
-    <row r="131" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="5"/>
       <c r="B131" s="16"/>
     </row>
-    <row r="132" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="5"/>
       <c r="B132" s="16"/>
     </row>
-    <row r="133" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="5"/>
       <c r="B133" s="16"/>
     </row>
-    <row r="134" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="5"/>
       <c r="B134" s="16"/>
     </row>
-    <row r="135" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="5"/>
       <c r="B135" s="16"/>
     </row>
-    <row r="136" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="5"/>
       <c r="B136" s="16"/>
     </row>
-    <row r="137" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="5"/>
       <c r="B137" s="16"/>
     </row>
-    <row r="138" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="5"/>
       <c r="B138" s="16"/>
     </row>
-    <row r="139" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="5"/>
       <c r="B139" s="16"/>
     </row>
-    <row r="140" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="5"/>
       <c r="B140" s="17"/>
     </row>
-    <row r="141" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="5"/>
       <c r="B141" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="5"/>
       <c r="B142" s="22" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="5"/>
       <c r="B143" s="24"/>
     </row>
-    <row r="144" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="5"/>
       <c r="B144" s="4"/>
     </row>
-    <row r="145" spans="1:2" ht="64.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" ht="65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="30"/>
       <c r="B145" s="15"/>
     </row>
@@ -12408,47 +12408,47 @@
       <c r="A146" s="30"/>
       <c r="B146" s="17"/>
     </row>
-    <row r="147" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="30"/>
       <c r="B147" s="31" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="30"/>
       <c r="B148" s="23"/>
     </row>
-    <row r="149" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="30"/>
       <c r="B149" s="23"/>
     </row>
-    <row r="150" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="30"/>
       <c r="B150" s="23"/>
     </row>
-    <row r="151" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="30"/>
       <c r="B151" s="23"/>
     </row>
-    <row r="152" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="30"/>
       <c r="B152" s="23"/>
     </row>
-    <row r="153" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="30"/>
       <c r="B153" s="24"/>
     </row>
-    <row r="154" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="30"/>
       <c r="B154" s="31"/>
     </row>
-    <row r="155" spans="1:2" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="30"/>
       <c r="B155" s="32" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="156" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="30"/>
       <c r="B156" s="33" t="s">
         <v>50</v>
@@ -12458,7 +12458,7 @@
       <c r="A157" s="34"/>
       <c r="B157" s="35"/>
     </row>
-    <row r="158" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="36" t="s">
         <v>51</v>
       </c>
@@ -12480,11 +12480,11 @@
       </c>
       <c r="B161" s="39"/>
     </row>
-    <row r="162" spans="1:2" ht="46.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" ht="47" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="36"/>
       <c r="B162" s="40"/>
     </row>
-    <row r="163" spans="1:2" ht="43.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" ht="44" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="36"/>
       <c r="B163" s="40"/>
     </row>
@@ -12492,7 +12492,7 @@
       <c r="A164" s="41"/>
       <c r="B164" s="42"/>
     </row>
-    <row r="165" spans="1:2" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" ht="32" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="36" t="s">
         <v>54</v>
       </c>
@@ -12500,7 +12500,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="166" spans="1:2" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="36"/>
       <c r="B166" s="37" t="s">
         <v>56</v>
@@ -12536,17 +12536,17 @@
         <v>61</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="46.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" ht="46" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="36"/>
       <c r="B172" s="37" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="173" spans="1:2" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="36"/>
       <c r="B173" s="23"/>
     </row>
-    <row r="174" spans="1:2" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="36"/>
       <c r="B174" s="23"/>
     </row>
@@ -12580,7 +12580,7 @@
       <c r="A181" s="44"/>
       <c r="B181" s="45"/>
     </row>
-    <row r="182" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="47" t="s">
         <v>64</v>
       </c>
@@ -12594,13 +12594,13 @@
         <v>66</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="48"/>
       <c r="B184" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="185" spans="1:2" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="48"/>
       <c r="B185" s="49" t="s">
         <v>68</v>
@@ -12612,7 +12612,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="48"/>
       <c r="B187" s="49" t="s">
         <v>70</v>
@@ -12658,57 +12658,57 @@
       <c r="A196" s="48"/>
       <c r="B196" s="27"/>
     </row>
-    <row r="197" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="48"/>
       <c r="B197" s="4"/>
     </row>
-    <row r="198" spans="1:2" ht="43.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" ht="43" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="48"/>
       <c r="B198" s="51" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="199" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="48"/>
       <c r="B199" s="15"/>
     </row>
-    <row r="200" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="48"/>
       <c r="B200" s="16"/>
     </row>
-    <row r="201" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="48"/>
       <c r="B201" s="16"/>
     </row>
-    <row r="202" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="48"/>
       <c r="B202" s="16"/>
     </row>
-    <row r="203" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="48"/>
       <c r="B203" s="16"/>
     </row>
-    <row r="204" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="48"/>
       <c r="B204" s="16"/>
     </row>
-    <row r="205" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="48"/>
       <c r="B205" s="16"/>
     </row>
-    <row r="206" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="48"/>
       <c r="B206" s="16"/>
     </row>
-    <row r="207" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="48"/>
       <c r="B207" s="16"/>
     </row>
-    <row r="208" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="48"/>
       <c r="B208" s="17"/>
     </row>
-    <row r="209" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="48"/>
       <c r="B209" s="31" t="s">
         <v>74</v>
@@ -12720,85 +12720,85 @@
         <v>75</v>
       </c>
     </row>
-    <row r="211" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="48"/>
       <c r="B211" s="15"/>
     </row>
-    <row r="212" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="48"/>
       <c r="B212" s="16"/>
     </row>
-    <row r="213" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="48"/>
       <c r="B213" s="16"/>
     </row>
-    <row r="214" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="48"/>
       <c r="B214" s="16"/>
     </row>
-    <row r="215" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="48"/>
       <c r="B215" s="16"/>
     </row>
-    <row r="216" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="48"/>
       <c r="B216" s="17"/>
     </row>
-    <row r="217" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="48"/>
       <c r="B217" s="52"/>
     </row>
-    <row r="218" spans="1:2" ht="73.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" ht="73" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="48"/>
       <c r="B218" s="37" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="219" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="48"/>
       <c r="B219" s="16"/>
     </row>
-    <row r="220" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="48"/>
       <c r="B220" s="16"/>
     </row>
-    <row r="221" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="48"/>
       <c r="B221" s="16"/>
     </row>
-    <row r="222" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="48"/>
       <c r="B222" s="16"/>
     </row>
-    <row r="223" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="48"/>
       <c r="B223" s="16"/>
     </row>
-    <row r="224" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="48"/>
       <c r="B224" s="16"/>
     </row>
-    <row r="225" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="48"/>
       <c r="B225" s="16"/>
     </row>
-    <row r="226" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="48"/>
       <c r="B226" s="16"/>
     </row>
-    <row r="227" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="48"/>
       <c r="B227" s="16"/>
     </row>
-    <row r="228" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="48"/>
       <c r="B228" s="16"/>
     </row>
-    <row r="229" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="48"/>
       <c r="B229" s="17"/>
     </row>
-    <row r="230" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="48"/>
       <c r="B230" s="31" t="s">
         <v>77</v>
@@ -12816,79 +12816,79 @@
         <v>79</v>
       </c>
     </row>
-    <row r="233" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="48"/>
       <c r="B233" s="52"/>
     </row>
-    <row r="234" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="48"/>
       <c r="B234" s="16"/>
     </row>
-    <row r="235" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="48"/>
       <c r="B235" s="16"/>
     </row>
-    <row r="236" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="48"/>
       <c r="B236" s="16"/>
     </row>
-    <row r="237" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="48"/>
       <c r="B237" s="16"/>
     </row>
-    <row r="238" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="48"/>
       <c r="B238" s="16"/>
     </row>
-    <row r="239" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="48"/>
       <c r="B239" s="16"/>
     </row>
-    <row r="240" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="48"/>
       <c r="B240" s="16"/>
     </row>
-    <row r="241" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="48"/>
       <c r="B241" s="16"/>
     </row>
-    <row r="242" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="48"/>
       <c r="B242" s="16"/>
     </row>
-    <row r="243" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="48"/>
       <c r="B243" s="16"/>
     </row>
-    <row r="244" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="48"/>
       <c r="B244" s="16"/>
     </row>
-    <row r="245" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="48"/>
       <c r="B245" s="16"/>
     </row>
-    <row r="246" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="48"/>
       <c r="B246" s="16"/>
     </row>
-    <row r="247" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="48"/>
       <c r="B247" s="17"/>
     </row>
-    <row r="248" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="48"/>
       <c r="B248" s="31"/>
     </row>
-    <row r="249" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="48"/>
       <c r="B249" s="31"/>
     </row>
-    <row r="250" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="53"/>
       <c r="B250" s="54"/>
     </row>
-    <row r="251" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="48" t="s">
         <v>80</v>
       </c>
@@ -12896,21 +12896,21 @@
         <v>81</v>
       </c>
     </row>
-    <row r="252" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="48"/>
       <c r="B252" s="31" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="253" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="55"/>
       <c r="B253" s="31"/>
     </row>
-    <row r="254" spans="1:2" s="58" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" s="58" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="56"/>
       <c r="B254" s="57"/>
     </row>
-    <row r="255" spans="1:2" s="58" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" s="58" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="59" t="s">
         <v>83</v>
       </c>
@@ -12918,45 +12918,45 @@
         <v>84</v>
       </c>
     </row>
-    <row r="256" spans="1:2" s="58" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" s="58" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="59"/>
       <c r="B256" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="257" spans="1:2" s="58" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" s="58" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="59"/>
       <c r="B257" s="21" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="258" spans="1:2" s="58" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" s="58" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="59"/>
       <c r="B258" s="21"/>
     </row>
-    <row r="259" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="59"/>
       <c r="B259" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="260" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="59"/>
       <c r="B260" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="261" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="60"/>
       <c r="B261" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="262" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="45"/>
       <c r="B262" s="45"/>
     </row>
-    <row r="263" spans="1:2" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="3" t="s">
         <v>90</v>
       </c>
@@ -12964,25 +12964,25 @@
         <v>91</v>
       </c>
     </row>
-    <row r="264" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="5"/>
       <c r="B264" s="14" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="265" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="5"/>
       <c r="B265" s="14" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="266" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="5"/>
       <c r="B266" s="14" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="267" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="5"/>
       <c r="B267" s="14" t="s">
         <v>95</v>
@@ -13029,7 +13029,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D1" location="目录!A1" display="返回" xr:uid="{A5BBA1DC-2DF9-4629-88EA-57AC50FBBC15}"/>
+    <hyperlink ref="D1" location="目录!A1" display="返回" xr:uid="{44600CCB-D44F-4E4E-9502-E634A5F25C89}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="39" orientation="portrait" r:id="rId1"/>
